--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -394,7 +394,7 @@
     <t>Extension créée dans le cadre du ROR qui indique un titre, une position ou une fonction de la personne assurant le contact au sein de l'organisation (directeur, secrétaire, etc.).</t>
   </si>
   <si>
-    <t>fonctionContact</t>
+    <t>fonctionContact : JDV-J220-FonctionContact-ROR</t>
   </si>
   <si>
     <t>Extension.extension:purposeContact</t>
@@ -403,7 +403,7 @@
     <t>purposeContact</t>
   </si>
   <si>
-    <t>natureContact</t>
+    <t>natureContact : JDV-J221-NatureContact-ROR</t>
   </si>
   <si>
     <t>Extension.extension:purposeContact.id</t>
@@ -459,7 +459,7 @@
     <t>Extension créée dans le cadre du ROR pour définir le niveau de restriction de l'accès aux attributs de la classe Contact.</t>
   </si>
   <si>
-    <t>niveauConfidentialite</t>
+    <t>niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
   </si>
   <si>
     <t>Extension.extension:ror-healthcareservice-contact-telecom</t>
@@ -500,7 +500,7 @@
     <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>canal</t>
+    <t>canal : JDV-J225-CanalCommunication-ROR</t>
   </si>
   <si>
     <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:ror-telecom-usage</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
